--- a/trash/Таблица для БД.xlsx
+++ b/trash/Таблица для БД.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEXX\Работа\siberia\trash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A8901EF-4606-4B53-9089-06941C8EDCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66694BDB-A949-4A86-93B9-5628F179EF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE955362-D1D1-417A-9E23-AD9A3CC4E0E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DE955362-D1D1-417A-9E23-AD9A3CC4E0E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$4:$R$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$4:$R$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="65">
   <si>
     <t>№кв</t>
   </si>
@@ -151,6 +152,78 @@
   </si>
   <si>
     <t>Сосновый</t>
+  </si>
+  <si>
+    <t>kv-1.jpg</t>
+  </si>
+  <si>
+    <t>kv-2.jpg</t>
+  </si>
+  <si>
+    <t>kv-3.jpg</t>
+  </si>
+  <si>
+    <t>kv-4.jpg</t>
+  </si>
+  <si>
+    <t>kv-5.jpg</t>
+  </si>
+  <si>
+    <t>kv-6.jpg</t>
+  </si>
+  <si>
+    <t>kv-7.jpg</t>
+  </si>
+  <si>
+    <t>kv-8.jpg</t>
+  </si>
+  <si>
+    <t>kv-9.jpg</t>
+  </si>
+  <si>
+    <t>kv-10.jpg</t>
+  </si>
+  <si>
+    <t>kv-11.jpg</t>
+  </si>
+  <si>
+    <t>kv-12.jpg</t>
+  </si>
+  <si>
+    <t>kv-13.jpg</t>
+  </si>
+  <si>
+    <t>kv-14.jpg</t>
+  </si>
+  <si>
+    <t>kv-15.jpg</t>
+  </si>
+  <si>
+    <t>kv-16.jpg</t>
+  </si>
+  <si>
+    <t>kv-17.jpg</t>
+  </si>
+  <si>
+    <t>kv-18.jpg</t>
+  </si>
+  <si>
+    <t>kv-19.jpg</t>
+  </si>
+  <si>
+    <t>kv-20.jpg</t>
+  </si>
+  <si>
+    <t>kv-21.jpg</t>
+  </si>
+  <si>
+    <t>kv-22.jpg</t>
+  </si>
+  <si>
+    <t>kom-1.jpg</t>
+  </si>
+  <si>
+    <t>kom-2.jpg</t>
   </si>
 </sst>
 </file>
@@ -160,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +256,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -212,21 +292,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -547,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255B8745-0394-4175-8853-668E8DDD6ABA}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:R24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,81 +748,81 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -760,27 +837,26 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="str">
-        <f>_xlfn.CONCAT("s","_",B5,"_",C5,"_",D5,".jpg")</f>
-        <v>s_1_1_1.jpg</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3">
         <v>6000000</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -815,27 +891,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <f>D5+1</f>
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" ref="E6:E24" si="0">_xlfn.CONCAT("s","_",B6,"_",C6,"_",D6,".jpg")</f>
-        <v>s_1_1_2.jpg</v>
-      </c>
-      <c r="F6" s="4">
-        <v>26000000</v>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6000000</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -847,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
         <v>1</v>
@@ -873,30 +947,28 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D23" si="1">D6+1</f>
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>s_1_1_3.jpg</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3">
         <v>6000000</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
@@ -931,30 +1003,28 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>s_1_1_4.jpg</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="3">
         <v>6000000</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -963,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -972,8 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <f>Q5+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>1</v>
@@ -990,24 +1059,22 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>s_1_1_5.jpg</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="3">
         <v>6000000</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1022,21 +1089,19 @@
         <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" ref="Q9:Q16" si="2">Q6+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
-        <f>R5+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1050,30 +1115,28 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>s_1_1_6.jpg</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="3">
         <v>6000000</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
@@ -1082,21 +1145,19 @@
         <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" ref="R10:R12" si="3">R6+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1110,24 +1171,22 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>s_1_1_7.jpg</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="3">
         <v>6000000</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1142,21 +1201,19 @@
         <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <f>Q8+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1170,24 +1227,22 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>s_1_1_8.jpg</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="3">
         <v>6000000</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
       </c>
       <c r="H12" s="1">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1199,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
         <v>0</v>
@@ -1211,12 +1266,10 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1230,39 +1283,37 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>s_1_1_9.jpg</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="3">
         <v>6000000</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
       </c>
       <c r="H13" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
         <v>0</v>
@@ -1271,8 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
         <v>1</v>
@@ -1289,21 +1339,19 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>s_1_1_10.jpg</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3">
         <v>6000000</v>
       </c>
       <c r="G14" s="1">
         <v>2</v>
       </c>
       <c r="H14" s="1">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1318,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
@@ -1330,8 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <f>Q11+1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>1</v>
@@ -1345,25 +1392,22 @@
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <f>C5+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="E15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>s_1_2_11.jpg</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="3">
         <v>6000000</v>
       </c>
       <c r="G15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -1372,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
@@ -1390,8 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>1</v>
@@ -1405,40 +1448,37 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ref="C16:C23" si="4">C6+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>s_1_2_12.jpg</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="3">
         <v>6000000</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
       </c>
       <c r="H16" s="1">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1">
         <v>1</v>
@@ -1450,8 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
         <v>1</v>
@@ -1465,34 +1504,31 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>s_1_2_13.jpg</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="E17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="3">
         <v>6000000</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="1">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1">
         <v>0</v>
@@ -1501,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>0</v>
@@ -1513,8 +1549,7 @@
         <v>1</v>
       </c>
       <c r="R17" s="1">
-        <f>R13+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1525,46 +1560,43 @@
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="E18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>s_1_2_14.jpg</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="E18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="3">
         <v>6000000</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>0</v>
@@ -1573,8 +1605,7 @@
         <v>1</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" ref="R18:R20" si="5">R14+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1585,31 +1616,28 @@
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>s_1_2_15.jpg</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="E19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="3">
         <v>6000000</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" s="1">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -1621,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>0</v>
@@ -1633,8 +1661,7 @@
         <v>1</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1645,43 +1672,40 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>s_1_2_16.jpg</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="3">
         <v>6000000</v>
       </c>
       <c r="G20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" s="1">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="1">
         <v>0</v>
@@ -1690,12 +1714,10 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <f>Q17+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1706,31 +1728,28 @@
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="E21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>s_1_2_17.jpg</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="E21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="3">
         <v>6000000</v>
       </c>
       <c r="G21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
@@ -1742,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="1">
         <v>0</v>
@@ -1751,8 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" ref="Q21:Q24" si="6">Q18+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R21" s="1">
         <v>1</v>
@@ -1766,25 +1784,22 @@
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>s_1_2_18.jpg</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="E22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="3">
         <v>6000000</v>
       </c>
       <c r="G22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -1796,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -1811,8 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1">
         <v>1</v>
@@ -1826,28 +1840,25 @@
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>s_1_2_19.jpg</v>
-      </c>
-      <c r="F23" s="4">
-        <v>26000000</v>
+      <c r="E23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6000000</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>250</v>
+        <v>26</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -1862,19 +1873,19 @@
         <v>0</v>
       </c>
       <c r="N23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1">
         <v>1</v>
       </c>
       <c r="R23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -1882,36 +1893,1704 @@
         <v>40</v>
       </c>
       <c r="B24" s="1">
-        <f>B5+1</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>26</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>21</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>32</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>32</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>100</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="3">
+        <v>26000000</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1">
+        <v>151</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>101</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="3">
+        <v>26000000</v>
+      </c>
+      <c r="G28" s="1">
+        <v>9</v>
+      </c>
+      <c r="H28" s="1">
+        <v>209</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:R22" xr:uid="{255B8745-0394-4175-8853-668E8DDD6ABA}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D689E99D-125F-4AC5-A393-049CCF8D6490}">
+  <dimension ref="A1:R52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:R25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="18" width="13.5703125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>39</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>42</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>55</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>60</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>43</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>56</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>59</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>80</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>74</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>58</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>59</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>63</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>63</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>26</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>26</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>32</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>32</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>s_2_1_1.jpg</v>
-      </c>
-      <c r="F24" s="4">
-        <v>6000000</v>
+        <v>100</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="3">
+        <v>26000000</v>
       </c>
       <c r="G24" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H24" s="1">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="I24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1">
         <v>0</v>
@@ -1920,24 +3599,159 @@
         <v>0</v>
       </c>
       <c r="N24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="1">
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R24" s="1">
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>101</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="3">
+        <v>26000000</v>
+      </c>
+      <c r="G25" s="1">
+        <v>9</v>
+      </c>
+      <c r="H25" s="1">
+        <v>209</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:R24" xr:uid="{255B8745-0394-4175-8853-668E8DDD6ABA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>